--- a/REFLECTION/reflection.xlsx
+++ b/REFLECTION/reflection.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\QOBITECHBRANDING\INTERNS\mondayreflection\REFLECTION\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="2040" windowHeight="1185"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>#</t>
   </si>
@@ -95,6 +90,57 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>product portfolio</t>
+  </si>
+  <si>
+    <t>ademolahammed</t>
+  </si>
+  <si>
+    <t>26-0202020</t>
+  </si>
+  <si>
+    <t>26-02-2020</t>
+  </si>
+  <si>
+    <t>27-02-2020</t>
+  </si>
+  <si>
+    <t>product landing page</t>
+  </si>
+  <si>
+    <t>mr Frank</t>
+  </si>
+  <si>
+    <t>28-02-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">civic page </t>
+  </si>
+  <si>
+    <t>login page</t>
+  </si>
+  <si>
+    <t>13-03-2020</t>
+  </si>
+  <si>
+    <t>14-03-2020</t>
+  </si>
+  <si>
+    <t>head depaertment, front end</t>
+  </si>
+  <si>
+    <t>mr ola,mr frank, ms doshima</t>
+  </si>
+  <si>
+    <t>mr ola, mr frank,ms doshima</t>
+  </si>
+  <si>
+    <t>mr oa,mr frank,mr calvin,ms doshima</t>
+  </si>
+  <si>
+    <t>mr oa,mr frank,mr calvin,ms doshima,mr aakin,</t>
   </si>
 </sst>
 </file>
@@ -110,15 +156,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -126,23 +172,23 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="20"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="7" tint="0.39997558519241921"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="20"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -186,49 +232,53 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -248,7 +298,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -256,19 +306,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -294,15 +344,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>150286</xdr:colOff>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>96311</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>369361</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>124886</xdr:rowOff>
+          <xdr:colOff>371475</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>314325</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -315,7 +365,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -323,29 +373,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -358,15 +385,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>139701</xdr:colOff>
+          <xdr:colOff>142875</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>85723</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>358776</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>104773</xdr:rowOff>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -379,7 +406,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -387,29 +414,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -419,14 +423,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>150286</xdr:colOff>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>96311</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="219075" cy="219075"/>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>371475</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>314325</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2056" name="Check Box 8" hidden="1">
@@ -438,7 +447,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -446,46 +455,28 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>139701</xdr:colOff>
+          <xdr:colOff>142875</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>85723</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="219075" cy="209550"/>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>295275</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2057" name="Check Box 9" hidden="1">
@@ -497,7 +488,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -505,46 +496,28 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>150286</xdr:colOff>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>96311</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="219075" cy="219075"/>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>371475</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>314325</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2058" name="Check Box 10" hidden="1">
@@ -556,7 +529,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -564,46 +537,28 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>150286</xdr:colOff>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>96311</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="219075" cy="219075"/>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>371475</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>314325</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2060" name="Check Box 12" hidden="1">
@@ -615,7 +570,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -623,46 +578,28 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>139701</xdr:colOff>
+          <xdr:colOff>142875</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>85723</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="219075" cy="209550"/>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>295275</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2061" name="Check Box 13" hidden="1">
@@ -674,7 +611,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -682,46 +619,28 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>150286</xdr:colOff>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>96311</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="219075" cy="219075"/>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>371475</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>314325</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2062" name="Check Box 14" hidden="1">
@@ -733,7 +652,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -741,46 +660,28 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>139701</xdr:colOff>
+          <xdr:colOff>142875</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>85723</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="219075" cy="209550"/>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>295275</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2063" name="Check Box 15" hidden="1">
@@ -792,7 +693,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -800,46 +701,28 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>150286</xdr:colOff>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>96311</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="219075" cy="219075"/>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>371475</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>314325</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2064" name="Check Box 16" hidden="1">
@@ -851,7 +734,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -859,33 +742,10 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -1147,7 +1007,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1158,7 +1018,7 @@
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E15"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,645 +1038,1121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="10" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="13" t="s">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1">
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="11">
         <v>1</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1">
+      <c r="H5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="11">
         <v>2</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="H6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="13" t="s">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1">
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+    </row>
+    <row r="7" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="11">
         <v>3</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="1">
+      <c r="H7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+    </row>
+    <row r="8" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="11">
         <v>4</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="H8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="13" t="s">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="1">
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="11">
         <v>5</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="1">
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="11">
         <v>6</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="13" t="s">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="1">
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+    </row>
+    <row r="11" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="11">
         <v>7</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="1">
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+    </row>
+    <row r="12" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="11">
         <v>8</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="13" t="s">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="1">
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="11">
         <v>9</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="1">
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="11">
         <v>10</v>
       </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="P14" s="15"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="P15" s="15"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="12"/>
+    </row>
+    <row r="15" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="12"/>
+    </row>
+    <row r="16" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+    </row>
+    <row r="17" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+    </row>
+    <row r="18" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+    </row>
+    <row r="19" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+    </row>
+    <row r="20" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+    </row>
+    <row r="21" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+    </row>
+    <row r="22" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+    </row>
+    <row r="23" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+    </row>
+    <row r="24" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+    </row>
+    <row r="25" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+    </row>
+    <row r="26" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+    </row>
+    <row r="27" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+    </row>
+    <row r="28" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="17">
+        <v>43893</v>
+      </c>
+      <c r="E28" s="17">
+        <v>43893</v>
+      </c>
+      <c r="F28" s="17">
+        <v>43985</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+    </row>
+    <row r="29" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+    </row>
+    <row r="30" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+    </row>
+    <row r="31" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+    </row>
+    <row r="32" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+    </row>
+    <row r="33" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+    </row>
+    <row r="34" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+    </row>
+    <row r="35" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+    </row>
+    <row r="36" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+    </row>
+    <row r="37" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+    </row>
+    <row r="38" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+    </row>
+    <row r="39" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+    </row>
+    <row r="40" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+    </row>
+    <row r="41" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+    </row>
+    <row r="42" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+    </row>
+    <row r="43" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+    </row>
+    <row r="44" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+    </row>
+    <row r="45" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+    </row>
+    <row r="46" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+    </row>
+    <row r="47" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+    </row>
+    <row r="48" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+    </row>
+    <row r="49" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+    </row>
+    <row r="50" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+    </row>
+    <row r="51" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="J1:O3"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="J4:N5"/>
-    <mergeCell ref="J6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="J8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="J10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="J12:N13"/>
+    <mergeCell ref="B4:B15"/>
+    <mergeCell ref="B40:B51"/>
+    <mergeCell ref="C40:C51"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="D40:D51"/>
+    <mergeCell ref="E40:E51"/>
+    <mergeCell ref="F40:F51"/>
+    <mergeCell ref="F16:F27"/>
+    <mergeCell ref="F28:F39"/>
+    <mergeCell ref="D16:D27"/>
+    <mergeCell ref="D28:D39"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="A16:A27"/>
     <mergeCell ref="A28:A39"/>
@@ -1833,21 +2169,31 @@
     <mergeCell ref="B28:B39"/>
     <mergeCell ref="C16:C27"/>
     <mergeCell ref="C28:C39"/>
-    <mergeCell ref="D40:D51"/>
-    <mergeCell ref="E40:E51"/>
-    <mergeCell ref="F40:F51"/>
-    <mergeCell ref="F16:F27"/>
-    <mergeCell ref="F28:F39"/>
-    <mergeCell ref="D16:D27"/>
-    <mergeCell ref="D28:D39"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B4:B15"/>
-    <mergeCell ref="B40:B51"/>
-    <mergeCell ref="C40:C51"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="J1:O3"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="J4:N5"/>
+    <mergeCell ref="J6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="J8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="J10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="J12:N13"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q8:Q9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1870,8 +2216,8 @@
                   <to>
                     <xdr:col>15</xdr:col>
                     <xdr:colOff>371475</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>314325</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1892,8 +2238,8 @@
                   <to>
                     <xdr:col>15</xdr:col>
                     <xdr:colOff>361950</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>295275</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1914,8 +2260,8 @@
                   <to>
                     <xdr:col>15</xdr:col>
                     <xdr:colOff>371475</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>314325</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1936,8 +2282,8 @@
                   <to>
                     <xdr:col>15</xdr:col>
                     <xdr:colOff>361950</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>295275</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1958,8 +2304,8 @@
                   <to>
                     <xdr:col>15</xdr:col>
                     <xdr:colOff>371475</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>314325</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1980,8 +2326,8 @@
                   <to>
                     <xdr:col>16</xdr:col>
                     <xdr:colOff>371475</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>314325</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2002,8 +2348,8 @@
                   <to>
                     <xdr:col>16</xdr:col>
                     <xdr:colOff>361950</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>295275</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2024,8 +2370,8 @@
                   <to>
                     <xdr:col>16</xdr:col>
                     <xdr:colOff>371475</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>314325</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2046,8 +2392,8 @@
                   <to>
                     <xdr:col>16</xdr:col>
                     <xdr:colOff>361950</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>295275</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2068,8 +2414,8 @@
                   <to>
                     <xdr:col>16</xdr:col>
                     <xdr:colOff>371475</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>314325</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
